--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A804FC3F-7F8B-4DA5-B481-62E7F4E08377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5027984B-A562-4B01-A859-DF1D7A3869CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7FE4DAF-CB08-4A58-8720-FBCED33DD68E}"/>
   </bookViews>
@@ -22,6 +22,101 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+  <si>
+    <t>Night Stay Student Coordinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.No </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Utkarsh</t>
+  </si>
+  <si>
+    <t>Jayant Pal</t>
+  </si>
+  <si>
+    <t>Ritu Khubhiyan</t>
+  </si>
+  <si>
+    <t>Devansh Kumar</t>
+  </si>
+  <si>
+    <t>Surya Pratap</t>
+  </si>
+  <si>
+    <t>Shriti Priya</t>
+  </si>
+  <si>
+    <t>Krish Sangal</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>Pratham</t>
+  </si>
+  <si>
+    <t>Harshita Sharma</t>
+  </si>
+  <si>
+    <t>Night Stay Faculty</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Sambhavi Shukla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Raghav </t>
+  </si>
+  <si>
+    <t>Shantanu</t>
+  </si>
+  <si>
+    <t>Ankit Gupta</t>
+  </si>
+  <si>
+    <t>Rajat Garg</t>
+  </si>
+  <si>
+    <t>Ratibhan</t>
+  </si>
+  <si>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>Reporting Before 8AM</t>
+  </si>
+  <si>
+    <t>Mayank Mishra</t>
+  </si>
+  <si>
+    <t>Apurva Ray</t>
+  </si>
+  <si>
+    <t>Sahil Gautam</t>
+  </si>
+  <si>
+    <t>Simrithi</t>
+  </si>
+  <si>
+    <t>Rishab</t>
+  </si>
+  <si>
+    <t>Shahnawaz</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +469,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21832303-B881-4E77-BED0-CEC7D20720F7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8449373193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9717837239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9258410831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8171221490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7455097673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7209061929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9910927925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9122876308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6204374808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7983310469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8587998339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9045307667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8770847571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9716683984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7696558554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9625379933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7494916270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9913661414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7542914538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7764812264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8235934801</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>